--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Desktop\Crowdfunding-ETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Desktop\Crowdfunding-ETL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB363F45-58D3-4E58-8A02-E90C7AB98FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F905AAD-B376-45F6-B64E-4F9F9044F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="7770" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1470" windowWidth="13620" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
